--- a/medicine/Psychotrope/Morley_(cigarette)/Morley_(cigarette).xlsx
+++ b/medicine/Psychotrope/Morley_(cigarette)/Morley_(cigarette).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Morley est une marque fictive de cigarette, dont le nom est supposément tiré de la prononciation anglaise raccourcie des cigarettes Marlboro, les marleys[1]. Cette marque est apparue dans divers films de télévision et de cinéma, séries télévisées, et jeux vidéo.
-Son apparition dans plusieurs films et séries s'explique par le fait qu'un fournisseur d'objets factices propose cette marque. Les régisseurs d'Hollywood ont l'obligation de ne pas faire de publicité cachée pour une marque de cigarettes existante[2]. Il est donc normal de retrouver la même fausse marque : cela indique simplement qu'ils ont utilisé le même fournisseur d'objets factices (en l'occurrence The Earl Hays Press[3]) sans que ce soit une référence à un autre film.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morley est une marque fictive de cigarette, dont le nom est supposément tiré de la prononciation anglaise raccourcie des cigarettes Marlboro, les marleys. Cette marque est apparue dans divers films de télévision et de cinéma, séries télévisées, et jeux vidéo.
+Son apparition dans plusieurs films et séries s'explique par le fait qu'un fournisseur d'objets factices propose cette marque. Les régisseurs d'Hollywood ont l'obligation de ne pas faire de publicité cachée pour une marque de cigarettes existante. Il est donc normal de retrouver la même fausse marque : cela indique simplement qu'ils ont utilisé le même fournisseur d'objets factices (en l'occurrence The Earl Hays Press) sans que ce soit une référence à un autre film.
 Bien que cette marque fictive existait bien avant, elle a été popularisée par la série X-Files, car elles étaient fumées par le personnage récurrent de l'Homme à la cigarette. Plus particulièrement, la marque est devenue le point central de l'épisode Nicotine (épisode 18, saison 7).
 </t>
         </is>
@@ -515,17 +527,56 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cinéma
-Action ou Vérité : scène d'introduction du film de 2018. Une fille « possédée » demande un paquet de Morley au vendeur.
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Action ou Vérité : scène d'introduction du film de 2018. Une fille « possédée » demande un paquet de Morley au vendeur.
 El Camino : Un film Breaking Bad : sorti en 2019, lorsque Jesse Pinkman ouvre la boîte à gants et y trouve un paquet de Morley à côté d'un 9 mm.
 In the Shadow of the Moon : scène madame Nowak, paquet sur la table.
 Mafia parano : film américain d’Eric Blakeney (2000) avec Liam Neeson.
-Psychose d'Alfred Hitchcock, sorti en 1960 (première apparition[4],[5])
+Psychose d'Alfred Hitchcock, sorti en 1960 (première apparition,)
 Spy Game : Jeu d'espions : Robert Redford dans le rôle d'un agent de la CIA pose le paquet de Morley sur le bureau pour faire diversion.
 Un jour, peut-être : c'est la marque de cigarettes que fume Will Hayes.
-Under the Silver Lake : scène d'introduction du film de 2018. Le personnage de Sam en fume une sur son balcon en regardant Sarah sur le bord de la piscine avec ses jumelles.
-Fictions télévisées
-American Horror Story : saison 1, épisode 11. Violet fume une Morley à 9 min 19 s de l'épisode.
+Under the Silver Lake : scène d'introduction du film de 2018. Le personnage de Sam en fume une sur son balcon en regardant Sarah sur le bord de la piscine avec ses jumelles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Morley_(cigarette)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morley_(cigarette)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des apparitions</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fictions télévisées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>American Horror Story : saison 1, épisode 11. Violet fume une Morley à 9 min 19 s de l'épisode.
 Au-delà du réel : L'aventure continue : saison 7 épisode 2 : un homme tient des cartouches de Morley
 Beverly Hills 90210 : saison 3, épisode 8 : Brenda le fait tomber de sa poche.
 Blacklist : saison 6, épislode 13 : Levy,le responsable de Samar au sein du Mossad pose un paquet sur une table
@@ -551,9 +602,43 @@
 24 heures chrono : saison 8, épisode 6 : Jack Bauer se fait passer pour un acheteur allemand et fume une Morley Light.
 Warehouse 13 : saison 4, épisode 9 : au début de l'épisode un paquet de Morley traîne sur la grande table de la bibliothèque secrète du Vatican.
 X-Files : l'homme à la cigarette fume cette marque dès l'épisode pilote de la série, tout comme plus tard, l'agent Reyes.
-Cold Case : Affaires classées : saison 1, épisode 22: scène de l'interrogatoire du soldat Jerry Kasher, la cigarette finie de se consumer entre ses doigts, et l'on voit le paquet de cigarettes.
-Autres médias
-Cyberpunk 2077 : il est possible de ramasser des cigarettes Morley dans l'environnement du jeu, la marque étant visible dans l'inventaire.
+Cold Case : Affaires classées : saison 1, épisode 22: scène de l'interrogatoire du soldat Jerry Kasher, la cigarette finie de se consumer entre ses doigts, et l'on voit le paquet de cigarettes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Morley_(cigarette)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morley_(cigarette)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des apparitions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres médias</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cyberpunk 2077 : il est possible de ramasser des cigarettes Morley dans l'environnement du jeu, la marque étant visible dans l'inventaire.
 Gone Home : dans le jeu vidéo, on en trouve un paquet dans les affaires de Sam.</t>
         </is>
       </c>
